--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2002475.188531925</v>
+        <v>-2005194.589676171</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>146.7476344314657</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>240.6328731623813</v>
       </c>
       <c r="H2" t="n">
-        <v>61.75875457259886</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>8.820741623809527</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>199.5962211436401</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>56.00253525541773</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>208.8990535094716</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>60.07093121546184</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>178.1080430672302</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>354.7058108711861</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>304.4541045768368</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>61.27375453128047</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195737</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>143.5056501025301</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>145.2692016866625</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>167.1438108880265</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>101.6969570046971</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>221.9816592718007</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>156.0551722706133</v>
       </c>
       <c r="U19" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>20.88994825141578</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>82.52140782073276</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>7.602497644398836</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545303</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2773,7 +2773,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541845</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,10 +3958,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1154.923604942953</v>
+        <v>652.5759934195833</v>
       </c>
       <c r="C2" t="n">
-        <v>1154.923604942953</v>
+        <v>652.5759934195833</v>
       </c>
       <c r="D2" t="n">
-        <v>1154.923604942953</v>
+        <v>294.3102948128328</v>
       </c>
       <c r="E2" t="n">
-        <v>1006.693671173796</v>
+        <v>294.3102948128328</v>
       </c>
       <c r="F2" t="n">
-        <v>595.7077663841883</v>
+        <v>294.3102948128328</v>
       </c>
       <c r="G2" t="n">
-        <v>180.0030161084772</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.831592188879</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W2" t="n">
-        <v>1545.062936918765</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X2" t="n">
-        <v>1545.062936918765</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="Y2" t="n">
-        <v>1154.923604942953</v>
+        <v>652.5759934195833</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>483.0441129489466</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727985</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.1463448421176</v>
+        <v>1440.879218901872</v>
       </c>
       <c r="C4" t="n">
-        <v>367.1463448421176</v>
+        <v>1271.943035973965</v>
       </c>
       <c r="D4" t="n">
-        <v>367.1463448421176</v>
+        <v>1271.943035973965</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>1105.345644920626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V4" t="n">
-        <v>1105.345644920626</v>
+        <v>2360.72698381062</v>
       </c>
       <c r="W4" t="n">
-        <v>815.9284748836651</v>
+        <v>2071.309813773659</v>
       </c>
       <c r="X4" t="n">
-        <v>587.9389239856478</v>
+        <v>1843.320262875642</v>
       </c>
       <c r="Y4" t="n">
-        <v>367.1463448421176</v>
+        <v>1622.527683732112</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1167.517642266217</v>
+        <v>1201.12525314008</v>
       </c>
       <c r="C5" t="n">
-        <v>798.5551253258054</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="D5" t="n">
-        <v>440.2894267190549</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E5" t="n">
-        <v>440.2894267190549</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2505.77111097044</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2297.025469576265</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2297.025469576265</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2297.025469576265</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>1944.256814306151</v>
+        <v>2351.330183441093</v>
       </c>
       <c r="X5" t="n">
-        <v>1944.256814306151</v>
+        <v>1977.864425180013</v>
       </c>
       <c r="Y5" t="n">
-        <v>1554.117482330339</v>
+        <v>1587.725093204202</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217532</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O6" t="n">
-        <v>1977.748514897737</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>494.0245808582381</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C7" t="n">
-        <v>325.0883979303312</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D7" t="n">
-        <v>325.0883979303312</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E7" t="n">
-        <v>325.0883979303312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234359</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1439.817372234359</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>1185.132884028472</v>
+        <v>859.5709967387889</v>
       </c>
       <c r="W7" t="n">
-        <v>1124.455175730025</v>
+        <v>859.5709967387889</v>
       </c>
       <c r="X7" t="n">
-        <v>896.465624832008</v>
+        <v>859.5709967387889</v>
       </c>
       <c r="Y7" t="n">
-        <v>675.6730456884778</v>
+        <v>679.6638825294655</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1181.996585635751</v>
+        <v>1963.454355030167</v>
       </c>
       <c r="C8" t="n">
-        <v>1181.996585635751</v>
+        <v>1594.491838089755</v>
       </c>
       <c r="D8" t="n">
-        <v>1181.996585635751</v>
+        <v>1236.226139483005</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>877.9374416333218</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>466.9515368437142</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H8" t="n">
         <v>51.24678656800308</v>
@@ -4802,13 +4802,13 @@
         <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926624</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532449</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.894479532449</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="V8" t="n">
-        <v>1921.365080969987</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="W8" t="n">
-        <v>1568.596425699873</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="X8" t="n">
-        <v>1568.596425699873</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="Y8" t="n">
-        <v>1568.596425699873</v>
+        <v>1963.454355030167</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500112</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735138</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049853</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164205</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.39011576115</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937311</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
         <v>2239.046898434118</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>535.7199774115527</v>
+        <v>750.7605118677428</v>
       </c>
       <c r="C10" t="n">
-        <v>535.7199774115527</v>
+        <v>750.7605118677428</v>
       </c>
       <c r="D10" t="n">
-        <v>535.7199774115527</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E10" t="n">
-        <v>473.8272960668249</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
         <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312191</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U10" t="n">
-        <v>825.1371474485134</v>
+        <v>1294.86217011059</v>
       </c>
       <c r="V10" t="n">
-        <v>825.1371474485134</v>
+        <v>1040.177681904703</v>
       </c>
       <c r="W10" t="n">
-        <v>535.7199774115527</v>
+        <v>750.7605118677428</v>
       </c>
       <c r="X10" t="n">
-        <v>535.7199774115527</v>
+        <v>750.7605118677428</v>
       </c>
       <c r="Y10" t="n">
-        <v>535.7199774115527</v>
+        <v>750.7605118677428</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5121,25 +5121,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.3544215660705</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C13" t="n">
-        <v>612.4182386381636</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1519.553721644579</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1230.136551607618</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1002.147000709601</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y13" t="n">
-        <v>781.3544215660705</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.445529061503</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>920.0602973575143</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>699.2677182139842</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,22 +5592,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2106.476762093131</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.314832085242</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D22" t="n">
-        <v>323.8164599824514</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,34 +6002,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2372.238089282765</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2152.636624305706</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1863.561397649904</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1608.876909444017</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1319.459739407057</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1319.459739407057</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1098.667160263527</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6306,19 +6306,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345476</v>
@@ -6409,16 +6409,16 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,10 +6455,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,43 +6470,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6552,16 +6552,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,25 +6643,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6786,19 +6786,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6886,7 +6886,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7020,22 +7020,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,7 +7208,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7263,16 +7263,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7318,16 +7318,16 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1652.717886400351</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>2204.627616639638</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7588,10 +7588,10 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954145</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>60.50016306149553</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>35.91627445172526</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>224.3355197601768</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>138.9393975111067</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>54.95314511566681</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154995</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8933,13 +8933,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>131.593439408708</v>
       </c>
       <c r="H2" t="n">
-        <v>239.2597979898065</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22714,16 +22714,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.16476095990663</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>84.99383243580147</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>44.73700564187209</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>3.727996117236472</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>61.35027805667499</v>
       </c>
       <c r="U19" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>127.7255247667966</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>173.4237883572458</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1337891.329138634</v>
+        <v>1337891.329138633</v>
       </c>
     </row>
     <row r="7">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64921.82232287322</v>
+        <v>64921.82232287324</v>
       </c>
       <c r="C2" t="n">
+        <v>82104.17698642837</v>
+      </c>
+      <c r="D2" t="n">
         <v>82104.17698642839</v>
       </c>
-      <c r="D2" t="n">
-        <v>82104.17698642836</v>
-      </c>
       <c r="E2" t="n">
-        <v>80714.65996900066</v>
+        <v>80714.65996900063</v>
       </c>
       <c r="F2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.6599690006</v>
       </c>
       <c r="G2" t="n">
-        <v>80714.65996900064</v>
+        <v>80714.65996900058</v>
       </c>
       <c r="H2" t="n">
         <v>80714.65996900061</v>
@@ -26335,25 +26335,25 @@
         <v>80714.65996900061</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="L2" t="n">
         <v>82104.17698642839</v>
       </c>
       <c r="M2" t="n">
+        <v>82104.17698642837</v>
+      </c>
+      <c r="N2" t="n">
+        <v>82104.17698642839</v>
+      </c>
+      <c r="O2" t="n">
         <v>82104.17698642834</v>
       </c>
-      <c r="N2" t="n">
-        <v>82104.17698642836</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82104.17698642836</v>
-      </c>
       <c r="P2" t="n">
-        <v>82104.17698642843</v>
+        <v>82104.17698642837</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245464</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>33838.50360469849</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707365</v>
+        <v>6897.424496707369</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707356</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707372</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707381</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
-        <v>14888.28375980083</v>
+        <v>14888.28375980084</v>
       </c>
       <c r="K4" t="n">
-        <v>14888.28375980089</v>
+        <v>14888.28375980086</v>
       </c>
       <c r="L4" t="n">
         <v>14888.28375980083</v>
       </c>
       <c r="M4" t="n">
-        <v>14888.28375980084</v>
+        <v>14888.28375980083</v>
       </c>
       <c r="N4" t="n">
-        <v>14888.28375980084</v>
+        <v>14888.28375980081</v>
       </c>
       <c r="O4" t="n">
-        <v>14888.28375980084</v>
+        <v>14888.28375980083</v>
       </c>
       <c r="P4" t="n">
-        <v>14888.28375980082</v>
+        <v>14888.28375980083</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1176606.237297589</v>
+        <v>-1177035.796164178</v>
       </c>
       <c r="C6" t="n">
-        <v>-142743.3222850412</v>
+        <v>-142743.3222850413</v>
       </c>
       <c r="D6" t="n">
-        <v>-142743.3222850414</v>
+        <v>-142743.3222850413</v>
       </c>
       <c r="E6" t="n">
-        <v>-534790.7359761602</v>
+        <v>-534825.4739015955</v>
       </c>
       <c r="F6" t="n">
-        <v>-27305.29435161386</v>
+        <v>-27340.03227704958</v>
       </c>
       <c r="G6" t="n">
-        <v>-27305.29435161383</v>
+        <v>-27340.03227704958</v>
       </c>
       <c r="H6" t="n">
-        <v>-27305.29435161386</v>
+        <v>-27340.03227704957</v>
       </c>
       <c r="I6" t="n">
-        <v>-27305.29435161388</v>
+        <v>-27340.03227704955</v>
       </c>
       <c r="J6" t="n">
-        <v>-222981.1184309021</v>
+        <v>-222981.1184309022</v>
       </c>
       <c r="K6" t="n">
-        <v>-35948.22262728791</v>
+        <v>-35948.22262728788</v>
       </c>
       <c r="L6" t="n">
-        <v>-35948.22262728785</v>
+        <v>-35948.22262728782</v>
       </c>
       <c r="M6" t="n">
-        <v>-168555.5163562147</v>
+        <v>-168555.5163562146</v>
       </c>
       <c r="N6" t="n">
-        <v>-35948.22262728789</v>
+        <v>-35948.22262728782</v>
       </c>
       <c r="O6" t="n">
-        <v>-55375.94062091969</v>
+        <v>-55375.94062091967</v>
       </c>
       <c r="P6" t="n">
-        <v>-35948.22262728779</v>
+        <v>-35948.22262728786</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="N2" t="n">
-        <v>24.2846474920397</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000385</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241352</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>235.1827356407961</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>39.3213902018646</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>277.4064124973911</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>52.54142218018788</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>67.44968014337663</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>140.3419152079414</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>226.4520671211292</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>40.47661028486456</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>27.22455920107564</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247055</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>23.29815389329809</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,16 +28014,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>85.1602081152887</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>142.7215040186705</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="29">
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181058</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491898</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,34 +31592,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762069</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.462496416876</v>
@@ -31628,10 +31628,10 @@
         <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675763</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335768</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>346.9084613860368</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,7 +32312,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32324,13 +32324,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>744.7005224868051</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32473,7 +32473,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>422.1299181110993</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,7 +32564,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>198.5607970756955</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33026,7 +33026,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O30" t="n">
-        <v>361.7519118779092</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,10 +33506,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
@@ -33518,10 +33518,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>691.6611968462892</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34205,31 +34205,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>250.3097721075164</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>707.690770008913</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34778,16 +34778,16 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>247.0876593049803</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>427.1133740445991</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
@@ -34799,7 +34799,7 @@
         <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>474.0150488837091</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419612</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637946</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091734</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560633</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L9" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820402</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928737</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961228</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>304.6326742391989</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667036</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831068</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295068</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805397</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35653,13 +35653,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>212.9340539717066</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35960,7 +35960,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35972,13 +35972,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>613.3588104034718</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>283.5755383312251</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,7 +36212,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>55.96455263125101</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36674,7 +36674,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36759,19 +36759,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O30" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,19 +36996,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37154,10 +37154,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37166,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>560.3194847629559</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>116.3353646931862</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>576.3490579255797</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
